--- a/contatos_wpp_bot.xlsx
+++ b/contatos_wpp_bot.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1620528591" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1620528591" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1620528591"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1620528591"/>
+      <pm:revision xmlns:pm="smNativeData" day="1620531740" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1620531740" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1620531740" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1620531740"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nome</t>
   </si>
@@ -31,23 +31,35 @@
     <t>Telefone</t>
   </si>
   <si>
-    <t>Haisa</t>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>554812345678</t>
   </si>
   <si>
     <t>Luiza</t>
   </si>
   <si>
-    <t>Maria Haisa</t>
-  </si>
-  <si>
-    <t>Maria Luiza</t>
+    <t>5548123456789</t>
+  </si>
+  <si>
+    <t>Maria Rita</t>
+  </si>
+  <si>
+    <t>554887654321</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>5548987654321</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
@@ -56,7 +68,6 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="4" formatCode="#,##0.00"/>
     <numFmt numFmtId="49" formatCode="@"/>
   </numFmts>
   <fonts count="1">
@@ -67,7 +78,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1620528591" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1620531740" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -89,7 +100,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1620528591" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1620531740" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -111,7 +122,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1620528591"/>
+          <pm:border xmlns:pm="smNativeData" id="1620531740"/>
         </ext>
       </extLst>
     </border>
@@ -130,7 +141,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1620528591"/>
+          <pm:border xmlns:pm="smNativeData" id="1620531740"/>
         </ext>
       </extLst>
     </border>
@@ -148,7 +159,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1620528591" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1620531740" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -415,7 +426,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -435,39 +446,39 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>554884929018</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>5548984388180</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>554884929018</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>5548984388180</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1620528591" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1620531740" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -476,16 +487,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1620528591" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1620528591" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1620528591" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1620528591" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1620531740" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1620531740" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1620531740" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1620531740" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1620528591" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1620531740" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
